--- a/data/case1/14/P2_6.xlsx
+++ b/data/case1/14/P2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.24925765130558375</v>
+        <v>0.2476608498783861</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991409944755</v>
+        <v>-0.0099999996011277403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999991325857565</v>
+        <v>-0.0089999995973677471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061992959209018039</v>
+        <v>0.061995794208851152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991447048373</v>
+        <v>-0.0059999996049162618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999117687338</v>
+        <v>-0.0059999995922694893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998982370926</v>
+        <v>-0.019999999516482347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998974433275</v>
+        <v>-0.019999999512418931</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990996404406</v>
+        <v>-0.0059999995829072006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999999093305064</v>
+        <v>-0.0059999995795863015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0070775599360928254</v>
+        <v>0.010427393336261304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999990913319756</v>
+        <v>-0.0059999995783726057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990836239192</v>
+        <v>-0.0059999995739223877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999024857821</v>
+        <v>-0.011999999540806883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990808119463</v>
+        <v>-0.0059999995720430022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999990803629721</v>
+        <v>-0.005999999571629111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.010838309596631568</v>
+        <v>0.0081517870173097862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999990519151751</v>
+        <v>-0.0089999995551810485</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999991496596543</v>
+        <v>-0.0089999996061917997</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999991417766267</v>
+        <v>-0.0089999996024303641</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999991407072599</v>
+        <v>-0.0089999996018610418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999991401583657</v>
+        <v>-0.008999999601473796</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999991262406098</v>
+        <v>-0.0089999995937510846</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998799196803</v>
+        <v>-0.041999999411447497</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998793186499</v>
+        <v>-0.041999999408152355</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.058018262342127258</v>
+        <v>-0.054182501198184241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999991160468724</v>
+        <v>-0.0059999995915038795</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999991157626553</v>
+        <v>-0.0059999995909993942</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999059584709</v>
+        <v>-0.011999999559217045</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.058036497061978665</v>
+        <v>0.055191259243931867</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999025187449</v>
+        <v>-0.01499999953994724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.02099999896720206</v>
+        <v>-0.020999999507391287</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999991093953042</v>
+        <v>-0.0059999995870079204</v>
       </c>
     </row>
   </sheetData>
